--- a/Boards/TM4C123GXL/workspace_GCC_ARM/Template/documentation/Especificações Técnicas.xlsx
+++ b/Boards/TM4C123GXL/workspace_GCC_ARM/Template/documentation/Especificações Técnicas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAGA\Boards\TM4C123GXL\workspace_GCC_ARM\Template\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12132" yWindow="396" windowWidth="17700" windowHeight="8448"/>
+    <workbookView xWindow="12135" yWindow="390" windowWidth="17700" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos_Firmware" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
   <si>
     <t>PA0</t>
   </si>
@@ -1261,12 +1266,18 @@
   </si>
   <si>
     <t>GCC ARM Embedded</t>
+  </si>
+  <si>
+    <t>JAGA PIN</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1573,7 +1584,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1795,13 +1806,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1956,7 +1978,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,9 +2010,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2022,6 +2045,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2197,25 +2221,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="17.109375" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2951,7 +2975,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="31"/>
     </row>
-    <row r="31" spans="1:22" ht="18">
+    <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="51"/>
       <c r="B31" s="47"/>
       <c r="C31" s="35"/>
@@ -2975,7 +2999,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="31"/>
     </row>
-    <row r="32" spans="1:22" ht="18">
+    <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="51"/>
       <c r="B32" s="47"/>
       <c r="C32" s="35"/>
@@ -4666,226 +4690,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="21" max="21" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:23">
+      <c r="B2" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:23">
+      <c r="B3" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:23">
+      <c r="B4" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:23">
+      <c r="B5" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="C5" s="52" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:23">
+      <c r="B6" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="C6" s="71" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:23">
+      <c r="A8" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="N8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="S8" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="T8" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="U8" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="V8" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="W8" s="28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.8" customHeight="1">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:23" ht="13.9" customHeight="1">
+      <c r="A9" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="C9" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="D9" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="61">
+      <c r="E9" s="61">
         <v>17</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="R9" s="63" t="s">
+      <c r="P9" s="3"/>
+      <c r="S9" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="S9" s="63">
+      <c r="T9" s="63">
         <v>0</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="64" t="s">
+      <c r="U9" s="63"/>
+      <c r="V9" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.6" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.6" customHeight="1">
+      <c r="A10" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="C10" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="D10" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="61">
+      <c r="E10" s="61">
         <v>18</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="R10" s="63" t="s">
+      <c r="P10" s="3"/>
+      <c r="S10" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="S10" s="63">
+      <c r="T10" s="63">
         <v>1</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="64" t="s">
+      <c r="U10" s="63"/>
+      <c r="V10" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="V10" s="18"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="81">
+        <v>11</v>
+      </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>19</v>
       </c>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4893,33 +4928,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="R11" s="19" t="s">
+      <c r="P11" s="3"/>
+      <c r="S11" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="S11" s="19">
+      <c r="T11" s="19">
         <v>2</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="19"/>
+      <c r="V11" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="V11" s="18"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="6"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="81">
+        <v>12</v>
+      </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4927,33 +4965,36 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="R12" s="19" t="s">
+      <c r="P12" s="3"/>
+      <c r="S12" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="S12" s="19">
+      <c r="T12" s="19">
         <v>3</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="19"/>
+      <c r="V12" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="6"/>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="81">
+        <v>13</v>
+      </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4961,33 +5002,36 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="R13" s="19" t="s">
+      <c r="P13" s="3"/>
+      <c r="S13" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="S13" s="19">
+      <c r="T13" s="19">
         <v>4</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="19"/>
+      <c r="V13" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="V13" s="18"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="6"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="81">
+        <v>8</v>
+      </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4995,1134 +5039,1215 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="R14" s="19" t="s">
+      <c r="P14" s="3"/>
+      <c r="S14" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="19">
+      <c r="T14" s="19">
         <v>5</v>
       </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="19"/>
+      <c r="V14" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="81">
+        <v>9</v>
+      </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>23</v>
       </c>
-      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="R15" s="19" t="s">
+      <c r="P15" s="3"/>
+      <c r="S15" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="S15" s="19">
+      <c r="T15" s="19">
         <v>6</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20" t="s">
+      <c r="U15" s="19"/>
+      <c r="V15" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="6"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="81">
+        <v>10</v>
+      </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>24</v>
       </c>
-      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="R16" s="19" t="s">
+      <c r="P16" s="3"/>
+      <c r="S16" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="S16" s="19">
+      <c r="T16" s="19">
         <v>7</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="21">
+      <c r="U16" s="19"/>
+      <c r="V16" s="21">
         <v>0</v>
       </c>
-      <c r="V16" s="18"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="12" t="s">
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="81">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>45</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="R17" s="19" t="s">
+      <c r="P17" s="3"/>
+      <c r="S17" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="S17" s="19">
+      <c r="T17" s="19">
         <v>8</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20">
+      <c r="U17" s="19"/>
+      <c r="V17" s="20">
         <v>0</v>
       </c>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="12" t="s">
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="81">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>46</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="R18" s="19" t="s">
+      <c r="P18" s="3"/>
+      <c r="S18" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="19">
+      <c r="T18" s="19">
         <v>9</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="20">
+      <c r="U18" s="19"/>
+      <c r="V18" s="20">
         <v>0</v>
       </c>
-      <c r="V18" s="18"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="12" t="s">
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="81">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>47</v>
       </c>
-      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="R19" s="19" t="s">
+      <c r="P19" s="3"/>
+      <c r="S19" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="S19" s="19">
+      <c r="T19" s="19">
         <v>10</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20">
+      <c r="U19" s="19"/>
+      <c r="V19" s="20">
         <v>0</v>
       </c>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="12" t="s">
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="81">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>48</v>
       </c>
-      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="R20" s="19" t="s">
+      <c r="P20" s="3"/>
+      <c r="S20" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="S20" s="19">
+      <c r="T20" s="19">
         <v>11</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20" t="s">
+      <c r="U20" s="19"/>
+      <c r="V20" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="12" t="s">
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="81">
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="R21" s="19" t="s">
+      <c r="P21" s="3"/>
+      <c r="S21" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="S21" s="19">
+      <c r="T21" s="19">
         <v>12</v>
       </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="19"/>
+      <c r="V21" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="V21" s="18"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="12" t="s">
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="81">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>57</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="R22" s="19" t="s">
+      <c r="P22" s="3"/>
+      <c r="S22" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="19">
+      <c r="T22" s="19">
         <v>13</v>
       </c>
-      <c r="T22" s="19"/>
-      <c r="U22" s="20">
+      <c r="U22" s="19"/>
+      <c r="V22" s="20">
         <v>0</v>
       </c>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="6"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="81">
+        <v>14</v>
+      </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="R23" s="22" t="s">
+      <c r="P23" s="3"/>
+      <c r="S23" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="S23" s="22">
+      <c r="T23" s="22">
         <v>14</v>
       </c>
-      <c r="T23" s="23">
+      <c r="U23" s="23">
         <v>-2</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="V23" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="V23" s="18"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="6"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="81">
+        <v>15</v>
+      </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="R24" s="22" t="s">
+      <c r="P24" s="3"/>
+      <c r="S24" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="S24" s="22">
+      <c r="T24" s="22">
         <v>15</v>
       </c>
-      <c r="T24" s="23">
+      <c r="U24" s="23">
         <v>-1</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="V24" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="78" t="s">
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>52</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="R25" s="22" t="s">
+      <c r="P25" s="3"/>
+      <c r="S25" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="22">
+      <c r="T25" s="22">
         <v>16</v>
       </c>
-      <c r="T25" s="25">
+      <c r="U25" s="25">
         <v>0</v>
       </c>
-      <c r="U25" s="24" t="s">
+      <c r="V25" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="V25" s="18"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="78"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4" t="s">
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>51</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="R26" s="22" t="s">
+      <c r="P26" s="3"/>
+      <c r="S26" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="S26" s="22">
+      <c r="T26" s="22">
         <v>17</v>
       </c>
-      <c r="T26" s="25">
+      <c r="U26" s="25">
         <v>1</v>
       </c>
-      <c r="U26" s="24" t="s">
+      <c r="V26" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="V26" s="18"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="78"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4" t="s">
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="78"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>50</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="R27" s="22" t="s">
+      <c r="P27" s="3"/>
+      <c r="S27" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="S27" s="22">
+      <c r="T27" s="22">
         <v>18</v>
       </c>
-      <c r="T27" s="25">
+      <c r="U27" s="25">
         <v>2</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="V27" s="18"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="78"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="4" t="s">
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="78"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>49</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="R28" s="22" t="s">
+      <c r="P28" s="3"/>
+      <c r="S28" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="S28" s="22">
+      <c r="T28" s="22">
         <v>19</v>
       </c>
-      <c r="T28" s="25">
+      <c r="U28" s="25">
         <v>3</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="V28" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="V28" s="18"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="6"/>
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="81">
+        <v>37</v>
+      </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="R29" s="22" t="s">
+      <c r="P29" s="3"/>
+      <c r="S29" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="S29" s="22">
+      <c r="T29" s="22">
         <v>20</v>
       </c>
-      <c r="T29" s="25">
+      <c r="U29" s="25">
         <v>4</v>
       </c>
-      <c r="U29" s="24" t="s">
+      <c r="V29" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="6"/>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="81">
+        <v>36</v>
+      </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>15</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="R30" s="65" t="s">
+      <c r="P30" s="3"/>
+      <c r="S30" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="S30" s="65">
+      <c r="T30" s="65">
         <v>21</v>
       </c>
-      <c r="T30" s="66">
+      <c r="U30" s="66">
         <v>5</v>
       </c>
-      <c r="U30" s="67" t="s">
+      <c r="V30" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="V30" s="68" t="s">
+      <c r="W30" s="68" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:23">
+      <c r="A31" s="81">
+        <v>35</v>
+      </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>14</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="R31" s="22" t="s">
+      <c r="P31" s="3"/>
+      <c r="S31" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="S31" s="22">
+      <c r="T31" s="22">
         <v>22</v>
       </c>
-      <c r="T31" s="25">
+      <c r="U31" s="25">
         <v>6</v>
       </c>
-      <c r="U31" s="24" t="s">
+      <c r="V31" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="V31" s="18"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="6"/>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="81">
+        <v>34</v>
+      </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>13</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="R32" s="22" t="s">
+      <c r="P32" s="3"/>
+      <c r="S32" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="S32" s="22">
+      <c r="T32" s="22">
         <v>23</v>
       </c>
-      <c r="T32" s="25">
+      <c r="U32" s="25">
         <v>7</v>
       </c>
-      <c r="U32" s="24" t="s">
+      <c r="V32" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="6"/>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="81">
+        <v>23</v>
+      </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>61</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="3"/>
+      <c r="M33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="R33" s="22" t="s">
+      <c r="P33" s="3"/>
+      <c r="S33" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="S33" s="22">
+      <c r="T33" s="22">
         <v>24</v>
       </c>
-      <c r="T33" s="25">
+      <c r="U33" s="25">
         <v>8</v>
       </c>
-      <c r="U33" s="24" t="s">
+      <c r="V33" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="V33" s="18"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="6"/>
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="81">
+        <v>24</v>
+      </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>62</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="R34" s="22" t="s">
+      <c r="P34" s="3"/>
+      <c r="S34" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="S34" s="22">
+      <c r="T34" s="22">
         <v>25</v>
       </c>
-      <c r="T34" s="25">
+      <c r="U34" s="25">
         <v>9</v>
       </c>
-      <c r="U34" s="24" t="s">
+      <c r="V34" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="6"/>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="81">
+        <v>25</v>
+      </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>63</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="R35" s="22" t="s">
+      <c r="P35" s="3"/>
+      <c r="S35" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="S35" s="22">
+      <c r="T35" s="22">
         <v>26</v>
       </c>
-      <c r="T35" s="25">
+      <c r="U35" s="25">
         <v>10</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="V35" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="V35" s="18"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="6"/>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="81">
+        <v>26</v>
+      </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>64</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="3"/>
+      <c r="L36" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="R36" s="22" t="s">
+      <c r="P36" s="3"/>
+      <c r="S36" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="S36" s="22">
+      <c r="T36" s="22">
         <v>27</v>
       </c>
-      <c r="T36" s="25">
+      <c r="U36" s="25">
         <v>11</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="V36" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="V36" s="18"/>
-    </row>
-    <row r="37" spans="1:22" ht="18">
-      <c r="A37" s="79" t="s">
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.75">
+      <c r="A37" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>43</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="R37" s="22" t="s">
+      <c r="P37" s="3"/>
+      <c r="S37" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="S37" s="22">
+      <c r="T37" s="22">
         <v>28</v>
       </c>
-      <c r="T37" s="25">
+      <c r="U37" s="25">
         <v>12</v>
       </c>
-      <c r="U37" s="24" t="s">
+      <c r="V37" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="V37" s="18"/>
-    </row>
-    <row r="38" spans="1:22" ht="18">
-      <c r="A38" s="80"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="4" t="s">
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.75">
+      <c r="A38" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>44</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="R38" s="22" t="s">
+      <c r="P38" s="3"/>
+      <c r="S38" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="S38" s="22">
+      <c r="T38" s="22">
         <v>29</v>
       </c>
-      <c r="T38" s="25">
+      <c r="U38" s="25">
         <v>13</v>
       </c>
-      <c r="U38" s="24" t="s">
+      <c r="V38" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="V38" s="18"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="6"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="81">
+        <v>33</v>
+      </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>53</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3"/>
+      <c r="G39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3"/>
+      <c r="J39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="R39" s="22" t="s">
+      <c r="P39" s="3"/>
+      <c r="S39" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="S39" s="22">
+      <c r="T39" s="22">
         <v>30</v>
       </c>
-      <c r="T39" s="25">
+      <c r="U39" s="25">
         <v>14</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="V39" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="V39" s="18"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="6"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="81">
+        <v>32</v>
+      </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>10</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="R40" s="22" t="s">
+      <c r="P40" s="3"/>
+      <c r="S40" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="S40" s="22">
+      <c r="T40" s="22">
         <v>31</v>
       </c>
-      <c r="T40" s="25">
+      <c r="U40" s="25">
         <v>15</v>
       </c>
-      <c r="U40" s="24" t="s">
+      <c r="V40" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="V40" s="18"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="6"/>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="81">
+        <v>18</v>
+      </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>9</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -6131,36 +6256,39 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="R41" s="22" t="s">
+      <c r="P41" s="3"/>
+      <c r="S41" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="S41" s="22">
+      <c r="T41" s="22">
         <v>32</v>
       </c>
-      <c r="T41" s="25">
+      <c r="U41" s="25">
         <v>16</v>
       </c>
-      <c r="U41" s="24" t="s">
+      <c r="V41" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="V41" s="18"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="6"/>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="81">
+        <v>27</v>
+      </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>8</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -6169,33 +6297,36 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="R42" s="22" t="s">
+      <c r="P42" s="3"/>
+      <c r="S42" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="S42" s="22">
+      <c r="T42" s="22">
         <v>33</v>
       </c>
-      <c r="T42" s="25">
+      <c r="U42" s="25">
         <v>17</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="V42" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="V42" s="18"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="6"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="81">
+        <v>28</v>
+      </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -6205,33 +6336,36 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="R43" s="22" t="s">
+      <c r="P43" s="3"/>
+      <c r="S43" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="S43" s="22">
+      <c r="T43" s="22">
         <v>34</v>
       </c>
-      <c r="T43" s="25">
+      <c r="U43" s="25">
         <v>18</v>
       </c>
-      <c r="U43" s="24" t="s">
+      <c r="V43" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="V43" s="18"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="6"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="81">
+        <v>29</v>
+      </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -6241,1203 +6375,1225 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="R44" s="22" t="s">
+      <c r="P44" s="3"/>
+      <c r="S44" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="S44" s="22">
+      <c r="T44" s="22">
         <v>35</v>
       </c>
-      <c r="T44" s="25">
+      <c r="U44" s="25">
         <v>19</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="6"/>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="81">
+        <v>5</v>
+      </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>59</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3"/>
+      <c r="N45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="R45" s="22" t="s">
+      <c r="P45" s="3"/>
+      <c r="S45" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="S45" s="22">
+      <c r="T45" s="22">
         <v>36</v>
       </c>
-      <c r="T45" s="25">
+      <c r="U45" s="25">
         <v>20</v>
       </c>
-      <c r="U45" s="24" t="s">
+      <c r="V45" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="V45" s="18"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="6"/>
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="81">
+        <v>6</v>
+      </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>60</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="R46" s="22" t="s">
+      <c r="P46" s="3"/>
+      <c r="S46" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="S46" s="22">
+      <c r="T46" s="22">
         <v>37</v>
       </c>
-      <c r="T46" s="25">
+      <c r="U46" s="25">
         <v>21</v>
       </c>
-      <c r="U46" s="24" t="s">
+      <c r="V46" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V46" s="18"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="10" t="s">
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="81">
+        <v>17</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>28</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="R47" s="22" t="s">
+      <c r="P47" s="5"/>
+      <c r="S47" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="S47" s="22">
+      <c r="T47" s="22">
         <v>38</v>
       </c>
-      <c r="T47" s="25">
+      <c r="U47" s="25">
         <v>22</v>
       </c>
-      <c r="U47" s="24" t="s">
+      <c r="V47" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="V47" s="18"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="11" t="s">
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="81">
+        <v>30</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>29</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="3"/>
+      <c r="O48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="S48" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="S48" s="22">
+      <c r="T48" s="22">
         <v>39</v>
       </c>
-      <c r="T48" s="25">
+      <c r="U48" s="25">
         <v>23</v>
       </c>
-      <c r="U48" s="24" t="s">
+      <c r="V48" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="V48" s="18"/>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="11" t="s">
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="81">
+        <v>40</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>30</v>
       </c>
-      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="3"/>
+      <c r="J49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="5"/>
+      <c r="M49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="2" t="s">
+      <c r="N49" s="3"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R49" s="22" t="s">
+      <c r="S49" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="S49" s="22">
+      <c r="T49" s="22">
         <v>40</v>
       </c>
-      <c r="T49" s="25">
+      <c r="U49" s="25">
         <v>24</v>
       </c>
-      <c r="U49" s="24" t="s">
+      <c r="V49" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="V49" s="18"/>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="1"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="81">
+        <v>39</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>31</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="2" t="s">
+      <c r="N50" s="3"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R50" s="22" t="s">
+      <c r="S50" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="S50" s="22">
+      <c r="T50" s="22">
         <v>41</v>
       </c>
-      <c r="T50" s="25">
+      <c r="U50" s="25">
         <v>25</v>
       </c>
-      <c r="U50" s="24" t="s">
+      <c r="V50" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="V50" s="18"/>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="10" t="s">
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="81">
+        <v>31</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>5</v>
       </c>
-      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N51" s="5"/>
       <c r="O51" s="5"/>
-      <c r="R51" s="22" t="s">
+      <c r="P51" s="5"/>
+      <c r="S51" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="S51" s="22">
+      <c r="T51" s="22">
         <v>42</v>
       </c>
-      <c r="T51" s="25">
+      <c r="U51" s="25">
         <v>26</v>
       </c>
-      <c r="U51" s="24" t="s">
+      <c r="V51" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="V51" s="18"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="R52" s="22" t="s">
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="S52" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="S52" s="22">
+      <c r="T52" s="22">
         <v>43</v>
       </c>
-      <c r="T52" s="25">
+      <c r="U52" s="25">
         <v>27</v>
       </c>
-      <c r="U52" s="24" t="s">
+      <c r="V52" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="V52" s="18"/>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="R53" s="22" t="s">
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="S53" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="S53" s="22">
+      <c r="T53" s="22">
         <v>44</v>
       </c>
-      <c r="T53" s="25">
+      <c r="U53" s="25">
         <v>28</v>
       </c>
-      <c r="U53" s="24" t="s">
+      <c r="V53" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="V53" s="18"/>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="R54" s="22" t="s">
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="S54" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="S54" s="22">
+      <c r="T54" s="22">
         <v>45</v>
       </c>
-      <c r="T54" s="25">
+      <c r="U54" s="25">
         <v>29</v>
       </c>
-      <c r="U54" s="24" t="s">
+      <c r="V54" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="V54" s="18"/>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="R55" s="22" t="s">
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="S55" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="S55" s="22">
+      <c r="T55" s="22">
         <v>46</v>
       </c>
-      <c r="T55" s="25">
+      <c r="U55" s="25">
         <v>30</v>
       </c>
-      <c r="U55" s="24" t="s">
+      <c r="V55" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="V55" s="18"/>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="R56" s="22" t="s">
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="S56" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="S56" s="22">
+      <c r="T56" s="22">
         <v>47</v>
       </c>
-      <c r="T56" s="25">
+      <c r="U56" s="25">
         <v>31</v>
       </c>
-      <c r="U56" s="24" t="s">
+      <c r="V56" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="V56" s="18"/>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="R57" s="22" t="s">
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="S57" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="S57" s="22">
+      <c r="T57" s="22">
         <v>48</v>
       </c>
-      <c r="T57" s="25">
+      <c r="U57" s="25">
         <v>32</v>
       </c>
-      <c r="U57" s="24" t="s">
+      <c r="V57" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="V57" s="18"/>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="R58" s="22" t="s">
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="S58" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="S58" s="22">
+      <c r="T58" s="22">
         <v>49</v>
       </c>
-      <c r="T58" s="25">
+      <c r="U58" s="25">
         <v>33</v>
       </c>
-      <c r="U58" s="24" t="s">
+      <c r="V58" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="V58" s="18"/>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="R59" s="22" t="s">
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="S59" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="S59" s="22">
+      <c r="T59" s="22">
         <v>50</v>
       </c>
-      <c r="T59" s="25">
+      <c r="U59" s="25">
         <v>34</v>
       </c>
-      <c r="U59" s="24" t="s">
+      <c r="V59" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="V59" s="18"/>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="R60" s="22" t="s">
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="S60" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="S60" s="22">
+      <c r="T60" s="22">
         <v>51</v>
       </c>
-      <c r="T60" s="25">
+      <c r="U60" s="25">
         <v>35</v>
       </c>
-      <c r="U60" s="24" t="s">
+      <c r="V60" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="V60" s="18"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="R61" s="22" t="s">
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="S61" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="S61" s="22">
+      <c r="T61" s="22">
         <v>52</v>
       </c>
-      <c r="T61" s="25">
+      <c r="U61" s="25">
         <v>36</v>
       </c>
-      <c r="U61" s="24" t="s">
+      <c r="V61" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="V61" s="18"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="R62" s="22" t="s">
+      <c r="W61" s="18"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="S62" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="S62" s="22">
+      <c r="T62" s="22">
         <v>53</v>
       </c>
-      <c r="T62" s="25">
+      <c r="U62" s="25">
         <v>37</v>
       </c>
-      <c r="U62" s="24" t="s">
+      <c r="V62" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="V62" s="18"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="R63" s="22" t="s">
+      <c r="W62" s="18"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="S63" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="S63" s="22">
+      <c r="T63" s="22">
         <v>54</v>
       </c>
-      <c r="T63" s="25">
+      <c r="U63" s="25">
         <v>38</v>
       </c>
-      <c r="U63" s="24" t="s">
+      <c r="V63" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="V63" s="18"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="R64" s="22" t="s">
+      <c r="W63" s="18"/>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="S64" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="S64" s="22">
+      <c r="T64" s="22">
         <v>55</v>
       </c>
-      <c r="T64" s="25">
+      <c r="U64" s="25">
         <v>39</v>
       </c>
-      <c r="U64" s="24" t="s">
+      <c r="V64" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="V64" s="18"/>
-    </row>
-    <row r="65" spans="18:22">
-      <c r="R65" s="22" t="s">
+      <c r="W64" s="18"/>
+    </row>
+    <row r="65" spans="19:23">
+      <c r="S65" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="S65" s="22">
+      <c r="T65" s="22">
         <v>56</v>
       </c>
-      <c r="T65" s="25">
+      <c r="U65" s="25">
         <v>40</v>
       </c>
-      <c r="U65" s="24" t="s">
+      <c r="V65" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="V65" s="18"/>
-    </row>
-    <row r="66" spans="18:22">
-      <c r="R66" s="22" t="s">
+      <c r="W65" s="18"/>
+    </row>
+    <row r="66" spans="19:23">
+      <c r="S66" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="S66" s="22">
+      <c r="T66" s="22">
         <v>57</v>
       </c>
-      <c r="T66" s="25">
+      <c r="U66" s="25">
         <v>41</v>
       </c>
-      <c r="U66" s="24" t="s">
+      <c r="V66" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="V66" s="18"/>
-    </row>
-    <row r="67" spans="18:22">
-      <c r="R67" s="22" t="s">
+      <c r="W66" s="18"/>
+    </row>
+    <row r="67" spans="19:23">
+      <c r="S67" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="S67" s="22">
+      <c r="T67" s="22">
         <v>58</v>
       </c>
-      <c r="T67" s="25">
+      <c r="U67" s="25">
         <v>42</v>
       </c>
-      <c r="U67" s="24" t="s">
+      <c r="V67" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="V67" s="18"/>
-    </row>
-    <row r="68" spans="18:22">
-      <c r="R68" s="22" t="s">
+      <c r="W67" s="18"/>
+    </row>
+    <row r="68" spans="19:23">
+      <c r="S68" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="S68" s="22">
+      <c r="T68" s="22">
         <v>59</v>
       </c>
-      <c r="T68" s="25">
+      <c r="U68" s="25">
         <v>43</v>
       </c>
-      <c r="U68" s="24" t="s">
+      <c r="V68" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="V68" s="18"/>
-    </row>
-    <row r="69" spans="18:22">
-      <c r="R69" s="22" t="s">
+      <c r="W68" s="18"/>
+    </row>
+    <row r="69" spans="19:23">
+      <c r="S69" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="S69" s="22">
+      <c r="T69" s="22">
         <v>60</v>
       </c>
-      <c r="T69" s="25">
+      <c r="U69" s="25">
         <v>44</v>
       </c>
-      <c r="U69" s="24" t="s">
+      <c r="V69" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="V69" s="18"/>
-    </row>
-    <row r="70" spans="18:22">
-      <c r="R70" s="22" t="s">
+      <c r="W69" s="18"/>
+    </row>
+    <row r="70" spans="19:23">
+      <c r="S70" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="S70" s="22">
+      <c r="T70" s="22">
         <v>61</v>
       </c>
-      <c r="T70" s="25">
+      <c r="U70" s="25">
         <v>45</v>
       </c>
-      <c r="U70" s="24" t="s">
+      <c r="V70" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="V70" s="18"/>
-    </row>
-    <row r="71" spans="18:22">
-      <c r="R71" s="22" t="s">
+      <c r="W70" s="18"/>
+    </row>
+    <row r="71" spans="19:23">
+      <c r="S71" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="S71" s="22">
+      <c r="T71" s="22">
         <v>62</v>
       </c>
-      <c r="T71" s="25">
+      <c r="U71" s="25">
         <v>46</v>
       </c>
-      <c r="U71" s="24" t="s">
+      <c r="V71" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="V71" s="18"/>
-    </row>
-    <row r="72" spans="18:22">
-      <c r="R72" s="22" t="s">
+      <c r="W71" s="18"/>
+    </row>
+    <row r="72" spans="19:23">
+      <c r="S72" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="S72" s="22">
+      <c r="T72" s="22">
         <v>63</v>
       </c>
-      <c r="T72" s="25">
+      <c r="U72" s="25">
         <v>47</v>
       </c>
-      <c r="U72" s="24" t="s">
+      <c r="V72" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="V72" s="18"/>
-    </row>
-    <row r="73" spans="18:22">
-      <c r="R73" s="19" t="s">
+      <c r="W72" s="18"/>
+    </row>
+    <row r="73" spans="19:23">
+      <c r="S73" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="S73" s="19">
+      <c r="T73" s="19">
         <v>64</v>
       </c>
-      <c r="T73" s="26">
+      <c r="U73" s="26">
         <v>48</v>
       </c>
-      <c r="U73" s="20" t="s">
+      <c r="V73" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="V73" s="18"/>
-    </row>
-    <row r="74" spans="18:22">
-      <c r="R74" s="19" t="s">
+      <c r="W73" s="18"/>
+    </row>
+    <row r="74" spans="19:23">
+      <c r="S74" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="S74" s="19">
+      <c r="T74" s="19">
         <v>65</v>
       </c>
-      <c r="T74" s="26">
+      <c r="U74" s="26">
         <v>49</v>
       </c>
-      <c r="U74" s="20" t="s">
+      <c r="V74" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="V74" s="18"/>
-    </row>
-    <row r="75" spans="18:22">
-      <c r="R75" s="19" t="s">
+      <c r="W74" s="18"/>
+    </row>
+    <row r="75" spans="19:23">
+      <c r="S75" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="S75" s="19">
+      <c r="T75" s="19">
         <v>66</v>
       </c>
-      <c r="T75" s="26">
+      <c r="U75" s="26">
         <v>50</v>
       </c>
-      <c r="U75" s="20" t="s">
+      <c r="V75" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="V75" s="18"/>
-    </row>
-    <row r="76" spans="18:22">
-      <c r="R76" s="19" t="s">
+      <c r="W75" s="18"/>
+    </row>
+    <row r="76" spans="19:23">
+      <c r="S76" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="S76" s="19">
+      <c r="T76" s="19">
         <v>67</v>
       </c>
-      <c r="T76" s="26">
+      <c r="U76" s="26">
         <v>51</v>
       </c>
-      <c r="U76" s="20" t="s">
+      <c r="V76" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="V76" s="18"/>
-    </row>
-    <row r="77" spans="18:22">
-      <c r="R77" s="19" t="s">
+      <c r="W76" s="18"/>
+    </row>
+    <row r="77" spans="19:23">
+      <c r="S77" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="S77" s="19">
+      <c r="T77" s="19">
         <v>73</v>
       </c>
-      <c r="T77" s="26">
+      <c r="U77" s="26">
         <v>57</v>
       </c>
-      <c r="U77" s="20" t="s">
+      <c r="V77" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="V77" s="18"/>
-    </row>
-    <row r="78" spans="18:22">
-      <c r="R78" s="19" t="s">
+      <c r="W77" s="18"/>
+    </row>
+    <row r="78" spans="19:23">
+      <c r="S78" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="S78" s="19">
+      <c r="T78" s="19">
         <v>74</v>
       </c>
-      <c r="T78" s="26">
+      <c r="U78" s="26">
         <v>58</v>
       </c>
-      <c r="U78" s="20" t="s">
+      <c r="V78" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="V78" s="18"/>
-    </row>
-    <row r="79" spans="18:22">
-      <c r="R79" s="19" t="s">
+      <c r="W78" s="18"/>
+    </row>
+    <row r="79" spans="19:23">
+      <c r="S79" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="S79" s="19">
+      <c r="T79" s="19">
         <v>75</v>
       </c>
-      <c r="T79" s="26">
+      <c r="U79" s="26">
         <v>59</v>
       </c>
-      <c r="U79" s="20" t="s">
+      <c r="V79" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="V79" s="18"/>
-    </row>
-    <row r="80" spans="18:22">
-      <c r="R80" s="19" t="s">
+      <c r="W79" s="18"/>
+    </row>
+    <row r="80" spans="19:23">
+      <c r="S80" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S80" s="19">
+      <c r="T80" s="19">
         <v>76</v>
       </c>
-      <c r="T80" s="26">
+      <c r="U80" s="26">
         <v>60</v>
       </c>
-      <c r="U80" s="20" t="s">
+      <c r="V80" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="V80" s="18"/>
-    </row>
-    <row r="81" spans="18:22">
-      <c r="R81" s="19" t="s">
+      <c r="W80" s="18"/>
+    </row>
+    <row r="81" spans="19:23">
+      <c r="S81" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="S81" s="19">
+      <c r="T81" s="19">
         <v>77</v>
       </c>
-      <c r="T81" s="26">
+      <c r="U81" s="26">
         <v>61</v>
       </c>
-      <c r="U81" s="20" t="s">
+      <c r="V81" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="V81" s="18"/>
-    </row>
-    <row r="82" spans="18:22">
-      <c r="R82" s="19" t="s">
+      <c r="W81" s="18"/>
+    </row>
+    <row r="82" spans="19:23">
+      <c r="S82" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="S82" s="19">
+      <c r="T82" s="19">
         <v>78</v>
       </c>
-      <c r="T82" s="26">
+      <c r="U82" s="26">
         <v>62</v>
       </c>
-      <c r="U82" s="20" t="s">
+      <c r="V82" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="V82" s="18"/>
-    </row>
-    <row r="83" spans="18:22">
-      <c r="R83" s="19" t="s">
+      <c r="W82" s="18"/>
+    </row>
+    <row r="83" spans="19:23">
+      <c r="S83" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="S83" s="19">
+      <c r="T83" s="19">
         <v>79</v>
       </c>
-      <c r="T83" s="26">
+      <c r="U83" s="26">
         <v>63</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="V83" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="V83" s="18"/>
-    </row>
-    <row r="84" spans="18:22">
-      <c r="R84" s="19" t="s">
+      <c r="W83" s="18"/>
+    </row>
+    <row r="84" spans="19:23">
+      <c r="S84" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="S84" s="19">
+      <c r="T84" s="19">
         <v>84</v>
       </c>
-      <c r="T84" s="26">
+      <c r="U84" s="26">
         <v>68</v>
       </c>
-      <c r="U84" s="20" t="s">
+      <c r="V84" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="V84" s="18"/>
-    </row>
-    <row r="85" spans="18:22">
-      <c r="R85" s="19" t="s">
+      <c r="W84" s="18"/>
+    </row>
+    <row r="85" spans="19:23">
+      <c r="S85" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="S85" s="19">
+      <c r="T85" s="19">
         <v>85</v>
       </c>
-      <c r="T85" s="26">
+      <c r="U85" s="26">
         <v>69</v>
       </c>
-      <c r="U85" s="20" t="s">
+      <c r="V85" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="V85" s="18"/>
-    </row>
-    <row r="86" spans="18:22">
-      <c r="R86" s="19" t="s">
+      <c r="W85" s="18"/>
+    </row>
+    <row r="86" spans="19:23">
+      <c r="S86" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="S86" s="19">
+      <c r="T86" s="19">
         <v>86</v>
       </c>
-      <c r="T86" s="26">
+      <c r="U86" s="26">
         <v>70</v>
       </c>
-      <c r="U86" s="20" t="s">
+      <c r="V86" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="V86" s="18"/>
-    </row>
-    <row r="87" spans="18:22">
-      <c r="R87" s="19" t="s">
+      <c r="W86" s="18"/>
+    </row>
+    <row r="87" spans="19:23">
+      <c r="S87" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="S87" s="19">
+      <c r="T87" s="19">
         <v>87</v>
       </c>
-      <c r="T87" s="26">
+      <c r="U87" s="26">
         <v>71</v>
       </c>
-      <c r="U87" s="20" t="s">
+      <c r="V87" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="V87" s="18"/>
-    </row>
-    <row r="88" spans="18:22">
-      <c r="R88" s="19" t="s">
+      <c r="W87" s="18"/>
+    </row>
+    <row r="88" spans="19:23">
+      <c r="S88" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="S88" s="19">
+      <c r="T88" s="19">
         <v>108</v>
       </c>
-      <c r="T88" s="26">
+      <c r="U88" s="26">
         <v>92</v>
       </c>
-      <c r="U88" s="20" t="s">
+      <c r="V88" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="V88" s="18"/>
-    </row>
-    <row r="89" spans="18:22">
-      <c r="R89" s="19" t="s">
+      <c r="W88" s="18"/>
+    </row>
+    <row r="89" spans="19:23">
+      <c r="S89" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="S89" s="19">
+      <c r="T89" s="19">
         <v>109</v>
       </c>
-      <c r="T89" s="26">
+      <c r="U89" s="26">
         <v>93</v>
       </c>
-      <c r="U89" s="20" t="s">
+      <c r="V89" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="V89" s="18"/>
-    </row>
-    <row r="90" spans="18:22">
-      <c r="R90" s="19" t="s">
+      <c r="W89" s="18"/>
+    </row>
+    <row r="90" spans="19:23">
+      <c r="S90" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="S90" s="19">
+      <c r="T90" s="19">
         <v>110</v>
       </c>
-      <c r="T90" s="26">
+      <c r="U90" s="26">
         <v>94</v>
       </c>
-      <c r="U90" s="20" t="s">
+      <c r="V90" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="V90" s="18"/>
-    </row>
-    <row r="91" spans="18:22">
-      <c r="R91" s="19" t="s">
+      <c r="W90" s="18"/>
+    </row>
+    <row r="91" spans="19:23">
+      <c r="S91" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="S91" s="19">
+      <c r="T91" s="19">
         <v>111</v>
       </c>
-      <c r="T91" s="26">
+      <c r="U91" s="26">
         <v>95</v>
       </c>
-      <c r="U91" s="20" t="s">
+      <c r="V91" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="V91" s="18"/>
-    </row>
-    <row r="92" spans="18:22">
-      <c r="R92" s="19" t="s">
+      <c r="W91" s="18"/>
+    </row>
+    <row r="92" spans="19:23">
+      <c r="S92" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="S92" s="19">
+      <c r="T92" s="19">
         <v>112</v>
       </c>
-      <c r="T92" s="26">
+      <c r="U92" s="26">
         <v>96</v>
       </c>
-      <c r="U92" s="20" t="s">
+      <c r="V92" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="V92" s="18"/>
-    </row>
-    <row r="93" spans="18:22">
-      <c r="R93" s="19" t="s">
+      <c r="W92" s="18"/>
+    </row>
+    <row r="93" spans="19:23">
+      <c r="S93" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="S93" s="19">
+      <c r="T93" s="19">
         <v>113</v>
       </c>
-      <c r="T93" s="26">
+      <c r="U93" s="26">
         <v>97</v>
       </c>
-      <c r="U93" s="20" t="s">
+      <c r="V93" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="V93" s="18"/>
-    </row>
-    <row r="94" spans="18:22">
-      <c r="R94" s="19" t="s">
+      <c r="W93" s="18"/>
+    </row>
+    <row r="94" spans="19:23">
+      <c r="S94" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="S94" s="19">
+      <c r="T94" s="19">
         <v>114</v>
       </c>
-      <c r="T94" s="26">
+      <c r="U94" s="26">
         <v>98</v>
       </c>
-      <c r="U94" s="20" t="s">
+      <c r="V94" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="V94" s="18"/>
-    </row>
-    <row r="95" spans="18:22">
-      <c r="R95" s="19" t="s">
+      <c r="W94" s="18"/>
+    </row>
+    <row r="95" spans="19:23">
+      <c r="S95" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="S95" s="19">
+      <c r="T95" s="19">
         <v>115</v>
       </c>
-      <c r="T95" s="26">
+      <c r="U95" s="26">
         <v>99</v>
       </c>
-      <c r="U95" s="20" t="s">
+      <c r="V95" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="V95" s="18"/>
-    </row>
-    <row r="96" spans="18:22">
-      <c r="R96" s="19" t="s">
+      <c r="W95" s="18"/>
+    </row>
+    <row r="96" spans="19:23">
+      <c r="S96" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="S96" s="19">
+      <c r="T96" s="19">
         <v>116</v>
       </c>
-      <c r="T96" s="26">
+      <c r="U96" s="26">
         <v>100</v>
       </c>
-      <c r="U96" s="20" t="s">
+      <c r="V96" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="V96" s="18"/>
-    </row>
-    <row r="97" spans="18:22">
-      <c r="R97" s="19" t="s">
+      <c r="W96" s="18"/>
+    </row>
+    <row r="97" spans="19:23">
+      <c r="S97" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="S97" s="19">
+      <c r="T97" s="19">
         <v>117</v>
       </c>
-      <c r="T97" s="26">
+      <c r="U97" s="26">
         <v>101</v>
       </c>
-      <c r="U97" s="20" t="s">
+      <c r="V97" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="V97" s="18"/>
-    </row>
-    <row r="98" spans="18:22">
-      <c r="R98" s="19" t="s">
+      <c r="W97" s="18"/>
+    </row>
+    <row r="98" spans="19:23">
+      <c r="S98" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="S98" s="19">
+      <c r="T98" s="19">
         <v>118</v>
       </c>
-      <c r="T98" s="26">
+      <c r="U98" s="26">
         <v>102</v>
       </c>
-      <c r="U98" s="20" t="s">
+      <c r="V98" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="V98" s="18"/>
-    </row>
-    <row r="99" spans="18:22">
-      <c r="R99" s="19" t="s">
+      <c r="W98" s="18"/>
+    </row>
+    <row r="99" spans="19:23">
+      <c r="S99" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="S99" s="19">
+      <c r="T99" s="19">
         <v>119</v>
       </c>
-      <c r="T99" s="26">
+      <c r="U99" s="26">
         <v>103</v>
       </c>
-      <c r="U99" s="20" t="s">
+      <c r="V99" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="V99" s="18"/>
-    </row>
-    <row r="100" spans="18:22">
-      <c r="R100" s="19" t="s">
+      <c r="W99" s="18"/>
+    </row>
+    <row r="100" spans="19:23">
+      <c r="S100" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="S100" s="19">
+      <c r="T100" s="19">
         <v>120</v>
       </c>
-      <c r="T100" s="26">
+      <c r="U100" s="26">
         <v>104</v>
       </c>
-      <c r="U100" s="20" t="s">
+      <c r="V100" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="V100" s="18"/>
-    </row>
-    <row r="101" spans="18:22">
-      <c r="R101" s="19" t="s">
+      <c r="W100" s="18"/>
+    </row>
+    <row r="101" spans="19:23">
+      <c r="S101" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="S101" s="19">
+      <c r="T101" s="19">
         <v>121</v>
       </c>
-      <c r="T101" s="26">
+      <c r="U101" s="26">
         <v>105</v>
       </c>
-      <c r="U101" s="20" t="s">
+      <c r="V101" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="V101" s="18"/>
-    </row>
-    <row r="102" spans="18:22">
-      <c r="R102" s="19" t="s">
+      <c r="W101" s="18"/>
+    </row>
+    <row r="102" spans="19:23">
+      <c r="S102" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="S102" s="19">
+      <c r="T102" s="19">
         <v>122</v>
       </c>
-      <c r="T102" s="26">
+      <c r="U102" s="26">
         <v>106</v>
       </c>
-      <c r="U102" s="20" t="s">
+      <c r="V102" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="V102" s="18"/>
-    </row>
-    <row r="103" spans="18:22">
-      <c r="R103" s="19" t="s">
+      <c r="W102" s="18"/>
+    </row>
+    <row r="103" spans="19:23">
+      <c r="S103" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="S103" s="19">
+      <c r="T103" s="19">
         <v>150</v>
       </c>
-      <c r="T103" s="26">
+      <c r="U103" s="26">
         <v>134</v>
       </c>
-      <c r="U103" s="20" t="s">
+      <c r="V103" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="V103" s="18"/>
-    </row>
-    <row r="104" spans="18:22">
-      <c r="R104" s="19" t="s">
+      <c r="W103" s="18"/>
+    </row>
+    <row r="104" spans="19:23">
+      <c r="S104" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="S104" s="19">
+      <c r="T104" s="19">
         <v>151</v>
       </c>
-      <c r="T104" s="26">
+      <c r="U104" s="26">
         <v>135</v>
       </c>
-      <c r="U104" s="20" t="s">
+      <c r="V104" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="V104" s="18"/>
-    </row>
-    <row r="105" spans="18:22">
-      <c r="R105" s="19" t="s">
+      <c r="W104" s="18"/>
+    </row>
+    <row r="105" spans="19:23">
+      <c r="S105" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="S105" s="19">
+      <c r="T105" s="19">
         <v>152</v>
       </c>
-      <c r="T105" s="26">
+      <c r="U105" s="26">
         <v>136</v>
       </c>
-      <c r="U105" s="20" t="s">
+      <c r="V105" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="V105" s="18"/>
-    </row>
-    <row r="106" spans="18:22">
-      <c r="R106" s="19" t="s">
+      <c r="W105" s="18"/>
+    </row>
+    <row r="106" spans="19:23">
+      <c r="S106" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="S106" s="19">
+      <c r="T106" s="19">
         <v>153</v>
       </c>
-      <c r="T106" s="26">
+      <c r="U106" s="26">
         <v>137</v>
       </c>
-      <c r="U106" s="20" t="s">
+      <c r="V106" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="V106" s="18"/>
-    </row>
-    <row r="107" spans="18:22">
-      <c r="R107" s="19" t="s">
+      <c r="W106" s="18"/>
+    </row>
+    <row r="107" spans="19:23">
+      <c r="S107" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="S107" s="19">
+      <c r="T107" s="19">
         <v>154</v>
       </c>
-      <c r="T107" s="26">
+      <c r="U107" s="26">
         <v>138</v>
       </c>
-      <c r="U107" s="20" t="s">
+      <c r="V107" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://launchpad.net/gcc-arm-embedded"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://launchpad.net/gcc-arm-embedded"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7445,12 +7601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
